--- a/data-raw/scenarios.xlsx
+++ b/data-raw/scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t xml:space="preserve">watershed</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mainstem Floodplain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action_type</t>
   </si>
   <si>
     <t xml:space="preserve">definition</t>
@@ -238,8 +235,8 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1325,27 +1322,28 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,13 +1365,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,13 +1379,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,13 +1393,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,13 +1407,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/scenarios.xlsx
+++ b/data-raw/scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" state="visible" r:id="rId2"/>
@@ -194,6 +194,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -277,11 +278,11 @@
   </sheetPr>
   <dimension ref="A1:G666"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I60" activeCellId="0" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -15624,11 +15625,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
@@ -15698,7 +15699,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>48</v>
@@ -15721,7 +15722,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
